--- a/Bocarlar Kartela..xlsx
+++ b/Bocarlar Kartela..xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaliskan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaliskan\Desktop\Kartela Etiket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D0254B-FB83-4425-8887-EE094F9C59A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D44D67D-51B8-4B34-B33E-CB52F905F7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>SGS Kodu</t>
   </si>
   <si>
-    <t>Bocarlar Kodu</t>
-  </si>
-  <si>
     <t>En (cm)</t>
   </si>
   <si>
@@ -680,6 +677,9 @@
   </si>
   <si>
     <t>2415-87400</t>
+  </si>
+  <si>
+    <t>Bocanlar Kodu</t>
   </si>
 </sst>
 </file>
@@ -756,22 +756,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF356854"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF356854"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF356854"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF356854"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF6F8F9"/>
@@ -795,13 +779,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Listede coton yazan yerleri &quot;Co-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -819,7 +819,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Fabric_Specifications_Detail" displayName="Fabric_Specifications_Detail" ref="A1:E114">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SGS Kodu"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Bocarlar Kodu"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Bocanlar Kodu"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="En (cm)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Gramaj (Gr)"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="İçerik"/>
@@ -1032,8 +1032,8 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1050,16 +1050,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1067,16 +1067,16 @@
         <v>20001</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1084,16 +1084,16 @@
         <v>20002</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1101,16 +1101,16 @@
         <v>20003</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1118,16 +1118,16 @@
         <v>20004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1135,16 +1135,16 @@
         <v>20005</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1152,16 +1152,16 @@
         <v>20006</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1169,16 +1169,16 @@
         <v>20007</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,16 +1186,16 @@
         <v>20008</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1203,16 +1203,16 @@
         <v>20009</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1220,16 +1220,16 @@
         <v>20010</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1237,16 +1237,16 @@
         <v>20011</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,16 +1254,16 @@
         <v>20012</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1271,16 +1271,16 @@
         <v>20013</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1288,16 +1288,16 @@
         <v>20014</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,16 +1305,16 @@
         <v>20015</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1322,16 +1322,16 @@
         <v>20016</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1339,16 +1339,16 @@
         <v>20017</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1356,16 +1356,16 @@
         <v>20018</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1373,16 +1373,16 @@
         <v>20019</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1390,16 +1390,16 @@
         <v>20020</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1407,16 +1407,16 @@
         <v>20021</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1424,16 +1424,16 @@
         <v>20022</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1441,16 +1441,16 @@
         <v>20023</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,16 +1458,16 @@
         <v>20024</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1475,16 +1475,16 @@
         <v>20025</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1492,16 +1492,16 @@
         <v>20026</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1509,16 +1509,16 @@
         <v>20027</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1526,16 +1526,16 @@
         <v>20028</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,16 +1543,16 @@
         <v>20029</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1560,16 +1560,16 @@
         <v>20030</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1577,16 +1577,16 @@
         <v>20031</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1594,16 +1594,16 @@
         <v>20032</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1611,16 +1611,16 @@
         <v>20033</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1628,16 +1628,16 @@
         <v>20034</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1645,16 +1645,16 @@
         <v>20035</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1662,16 +1662,16 @@
         <v>20036</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1679,16 +1679,16 @@
         <v>20037</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1696,16 +1696,16 @@
         <v>20038</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1713,16 +1713,16 @@
         <v>20039</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1730,16 +1730,16 @@
         <v>20040</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1747,16 +1747,16 @@
         <v>20041</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1764,16 +1764,16 @@
         <v>20042</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1781,16 +1781,16 @@
         <v>20043</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1798,16 +1798,16 @@
         <v>20044</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1815,16 +1815,16 @@
         <v>20045</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1832,16 +1832,16 @@
         <v>20046</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1849,16 +1849,16 @@
         <v>20047</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1866,16 +1866,16 @@
         <v>20048</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1883,16 +1883,16 @@
         <v>20049</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1900,16 +1900,16 @@
         <v>20050</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1917,16 +1917,16 @@
         <v>20051</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1934,16 +1934,16 @@
         <v>20052</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,16 +1951,16 @@
         <v>20053</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="E54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1968,16 +1968,16 @@
         <v>20054</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1985,16 +1985,16 @@
         <v>20055</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2002,16 +2002,16 @@
         <v>20056</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2019,16 +2019,16 @@
         <v>20057</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2036,16 +2036,16 @@
         <v>20058</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="E59" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2053,16 +2053,16 @@
         <v>20059</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2070,16 +2070,16 @@
         <v>20060</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2087,16 +2087,16 @@
         <v>20061</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,16 +2104,16 @@
         <v>20062</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2121,16 +2121,16 @@
         <v>20063</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="E64" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2138,16 +2138,16 @@
         <v>20064</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="E65" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2155,16 +2155,16 @@
         <v>20065</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2172,16 +2172,16 @@
         <v>20066</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2189,16 +2189,16 @@
         <v>20067</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2206,16 +2206,16 @@
         <v>20068</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2223,16 +2223,16 @@
         <v>20069</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2240,16 +2240,16 @@
         <v>20070</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2257,16 +2257,16 @@
         <v>20071</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2274,16 +2274,16 @@
         <v>20072</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2291,16 +2291,16 @@
         <v>20073</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2308,16 +2308,16 @@
         <v>20074</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2325,16 +2325,16 @@
         <v>20075</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2342,16 +2342,16 @@
         <v>20076</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2359,16 +2359,16 @@
         <v>20077</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2376,16 +2376,16 @@
         <v>20078</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,16 +2393,16 @@
         <v>20079</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2410,16 +2410,16 @@
         <v>20080</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2427,16 +2427,16 @@
         <v>20081</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2444,16 +2444,16 @@
         <v>20082</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2461,16 +2461,16 @@
         <v>20083</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2478,16 +2478,16 @@
         <v>20084</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2495,16 +2495,16 @@
         <v>20085</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2512,16 +2512,16 @@
         <v>20086</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2529,16 +2529,16 @@
         <v>20087</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2546,16 +2546,16 @@
         <v>20088</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2563,16 +2563,16 @@
         <v>20089</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2580,16 +2580,16 @@
         <v>20090</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2597,16 +2597,16 @@
         <v>20091</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2614,16 +2614,16 @@
         <v>20092</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,16 +2631,16 @@
         <v>20093</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2648,16 +2648,16 @@
         <v>20094</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,16 +2665,16 @@
         <v>20095</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2682,16 +2682,16 @@
         <v>20096</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2699,16 +2699,16 @@
         <v>20097</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2716,16 +2716,16 @@
         <v>20098</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,16 +2733,16 @@
         <v>20099</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2750,16 +2750,16 @@
         <v>20100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2767,16 +2767,16 @@
         <v>20101</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2784,16 +2784,16 @@
         <v>20102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2801,16 +2801,16 @@
         <v>20103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2818,16 +2818,16 @@
         <v>20104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2835,16 +2835,16 @@
         <v>20105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2852,16 +2852,16 @@
         <v>20106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2869,16 +2869,16 @@
         <v>20107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2886,16 +2886,16 @@
         <v>20108</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2903,16 +2903,16 @@
         <v>20109</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2923,13 +2923,13 @@
         <v>18127</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2937,16 +2937,16 @@
         <v>20111</v>
       </c>
       <c r="B112" s="3">
-        <v>18152</v>
+        <v>18151</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2954,16 +2954,16 @@
         <v>20112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2971,16 +2971,16 @@
         <v>20113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E114" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
